--- a/others_EN/inputs/html/AXS_assess_grid_WORD_EN.xlsx
+++ b/others_EN/inputs/html/AXS_assess_grid_WORD_EN.xlsx
@@ -16,43 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
-  <si>
-    <t>Mise en forme de contenus</t>
-  </si>
-  <si>
-    <t>Couleurs et contrastes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Listes à puces ou numérotées  </t>
-  </si>
-  <si>
-    <t>Images</t>
-  </si>
-  <si>
-    <t>Liens</t>
-  </si>
-  <si>
-    <t>Conversion en PDF</t>
-  </si>
-  <si>
-    <t>Tableaux</t>
-  </si>
-  <si>
-    <t>Vérifications finales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiérarchie et pertinence des titres </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rédaction de contenus </t>
-  </si>
-  <si>
-    <t xml:space="preserve">La couleur n'est pas le seul moyen de véhiculer de l’information  </t>
-  </si>
-  <si>
-    <t>La langue du document est définie</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t xml:space="preserve">https://www.access-for-all.ch/en/pdf-lab/pdf-accessibility-checker-pac.html </t>
   </si>
@@ -66,149 +30,6 @@
     <t>Colour Contrast Analyser</t>
   </si>
   <si>
-    <t xml:space="preserve">Les champs "Titre", "Auteur" et "Mots clefs" sont renseignés </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le style « liste » est utilisé  pour regrouper les éléments de même nature </t>
-  </si>
-  <si>
-    <t>Image informative complexe : 
-- Un court texte de remplacement est présent (description brève de l’image) ainsi qu’une indication sur l’emplacement de la description détaillée
-- Une description détaillée est fournie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graphiques ou schémas :
-- On a utilisé des SmartArt plutôt que des images (Insertion &gt; SmartArt) et le texte de remplacement est complété </t>
-  </si>
-  <si>
-    <t>Les liens vers des fichiers téléchargeables indiquent le nom, le format, le poids et la langue du fichier (si celle-ci est différente de la langue principale du document en cours)</t>
-  </si>
-  <si>
-    <t>Les tableaux ne sont pas utilisés à des fins de mise en page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si tableau complexe : ajouter une description (Format de la forme &gt; Texte de remplacement &gt; Description) </t>
-  </si>
-  <si>
-    <t>Contenus vidéos et audios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si fichier audio : Une transcription intégrale en texte est fournie </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si vidéo : Des sous-titres sont fournis pour restituer l’ensemble des informations véhiculées par la bande son </t>
-  </si>
-  <si>
-    <t>Si vidéo : Une audiodescription est fournie si des informations ne sont accessibles  que via l’image</t>
-  </si>
-  <si>
-    <t>Général : pas plus de 3 flashs à la seconde</t>
-  </si>
-  <si>
-    <t>Tout contenu multimédia doit être activable et contrôlable par l'utilisateur (pas de lancement automatique au chargement de la page)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lancer le vérificateur d'acccessibilité d'Office : Fichier &gt; Vérifier la présence de problèmes &gt; Vérifier l’accessibilité (copier le résultat dans l'onglet correspondant)                                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si conversion en PDF : utiliser Fichier &gt; Enregistrer sous &gt; Type "PDF" et cocher l'option "Balises de structure de document pour l'accessibilité" 
-Remarque : il est préférable de créer les PDF à partir d'un version d'Office 2013 ou + </t>
-  </si>
-  <si>
-    <t>Pour aller plus loin : vérification de l'accessibilité du PDF avec PDF Accessibility Checker (PAC3) par l'auditeur</t>
-  </si>
-  <si>
-    <t>Pour aller plus loin : si la présentation entraine la génération d’un fichier PDF volumineux (plus de 50 diapositives), afin de permettre aux lecteurs d’écrans de l’interpréter correctement, il faut conseiller aux destinataires de modifier le paramètre suivant dans Adobe : Édition &gt; Préférences &gt; Lecture &gt; Option de lecteur d’écran : « Lire l’intégralité du document »</t>
-  </si>
-  <si>
-    <t>Attributs du document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tous les titres ont des intitulés spécifiques et précis </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Table des matières </t>
-  </si>
-  <si>
-    <t>Présence d'une table des matières : menu Références &gt; Table des matières</t>
-  </si>
-  <si>
-    <t>La table des matières est à jour par rapport au contenu du document</t>
-  </si>
-  <si>
-    <t>Les changements de langue ponctuels (citations, …) sont signalés</t>
-  </si>
-  <si>
-    <t>Utilisation des différents styles de titre du menu Accueil (Titre 1, Titre 2, etc.) pour structurer le document</t>
-  </si>
-  <si>
-    <t>L’accentuation sur les majuscules qui peuvent changer la prononciation (ÀÉÈÊÇ) est conservée</t>
-  </si>
-  <si>
-    <t>Pas d'acronymes ou expressions particulières (si présence : explicités à la première occurrence)</t>
-  </si>
-  <si>
-    <t>Les styles appropriés sont utilisés (exemples : normal, citations, légendes...)</t>
-  </si>
-  <si>
-    <t>Majuscules en début de phrase</t>
-  </si>
-  <si>
-    <t>Police de caractères sans serif (Arial, Helvetica…) en corps 12 pixels minimum</t>
-  </si>
-  <si>
-    <t>Paragraphes alignés à gauche (éviter de justifier le texte, de le centrer ou de l’aligner à droite)</t>
-  </si>
-  <si>
-    <t>Pas de phrases entières en majuscules, pas ou peu d'italique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Espacement des paragraphe correct (fonction "Retrait et Espacement", pas de tabulation ni retours chariots) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si colonnes : la fonction Mise en page &gt; Colonnes est utilisée </t>
-  </si>
-  <si>
-    <t>Pas de zones de texte</t>
-  </si>
-  <si>
-    <t>Utilisation correcte des sauts de page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les pages du document sont numérotées </t>
-  </si>
-  <si>
-    <t>Images porteuses d’informations : 
-- Un texte de remplacement qui reprend le contenu informatif de l’image est présent : Format de l’image &gt; Texte de remplacement &gt; champ « Description »</t>
-  </si>
-  <si>
-    <t>Images décoratives : 
-- Le champ « Description » du texte de remplacement est vide</t>
-  </si>
-  <si>
-    <t>Image lien : 
-- Texte de remplacement  (champ « Description ») qui décrit la fonction ou la destination du lien</t>
-  </si>
-  <si>
-    <t>Les intitulés de liens sont explicites (compréhensibles hors contexte)</t>
-  </si>
-  <si>
-    <t>Le contraste entre la couleur du contenu et celle du fond respecte : 
-4.5/1 pour du texte de taille standard (12 ou 16)
-3/1 pour texte de grande taille (150% ou 120% si gras de taille standard) 
-(Tester les contrastes avec Colour Contrast Analyser)</t>
-  </si>
-  <si>
-    <t>Les liens qui déclenchent l’ouverture d’une nouvelle fenêtre incluent la mention
- « nouvelle fenêtre » dans leur libellé (modifier le lien &gt; "Info-bulle")</t>
-  </si>
-  <si>
-    <t>Tableaux simples : pas de fusion de cellules, de cellules vides, ni d'images dans le tableau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tableaux de données : entêtes de colonnes </t>
-  </si>
-  <si>
     <t>this sheet can be deleted if unnecessary</t>
   </si>
   <si>
@@ -243,13 +64,160 @@
   </si>
   <si>
     <t>Other links</t>
+  </si>
+  <si>
+    <t>Title, author and tags fields have to be completed in tab File &gt; Info &gt; Properties.</t>
+  </si>
+  <si>
+    <t>Properties</t>
+  </si>
+  <si>
+    <t>The main language must be defined in the tab File &gt; Options &gt; Language</t>
+  </si>
+  <si>
+    <t>Every punctual change of language must be identified by selecting the text and: tab Review &gt; Language &gt; Set proofing language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Every title is unique and descriptive </t>
+  </si>
+  <si>
+    <t>Wording</t>
+  </si>
+  <si>
+    <t>If necessary, keep accentuation on capital letters (example: É or Ç): use the Insert tab &gt; Symbol</t>
+  </si>
+  <si>
+    <t>Avoid abbreviations and acronyms; explain them at the first occurrence</t>
+  </si>
+  <si>
+    <t>Use familiar sans serif fonts (such as Arial or Calibri), in a larger font size (18pt or larger).</t>
+  </si>
+  <si>
+    <t>Begin all sentences by a capital letter but avoid using all capital letters and excessive italics or underlines</t>
+  </si>
+  <si>
+    <t>Avoid justifying the text; prefer left alignment.</t>
+  </si>
+  <si>
+    <t>In order to add white space between sentences and paragraphs, use option: right click on the text and select Paragraph… &gt; Indents and Spacing</t>
+  </si>
+  <si>
+    <t>Colors and contrasts</t>
+  </si>
+  <si>
+    <t>The presentation of text should have a contrast ratio of at least 4.5:1
+you can download the Colour Contrast Analyser tool</t>
+  </si>
+  <si>
+    <t>Ensure that color is not the only means of conveying information</t>
+  </si>
+  <si>
+    <t>Bulleted Lists or Numbered Lists</t>
+  </si>
+  <si>
+    <t>the appropriate and native functions are used in order to create lists</t>
+  </si>
+  <si>
+    <t>Pictures</t>
+  </si>
+  <si>
+    <t>alt text: it conveys the content and the purpose of the image and its context in a concise and unambiguous manner.</t>
+  </si>
+  <si>
+    <t>If the picture is only decorative, leave the Description text box blank</t>
+  </si>
+  <si>
+    <t>graphics / diagrams:
+- SmartArt instead of images (Insert&gt; SmartArt) and alt text is completed</t>
+  </si>
+  <si>
+    <t>Links</t>
+  </si>
+  <si>
+    <t>Hyperlinks titles are simples and concises</t>
+  </si>
+  <si>
+    <t>For every downloadable file, it is necessary to specify its name, type, size and language (if different of the presentation language)</t>
+  </si>
+  <si>
+    <t>Tables</t>
+  </si>
+  <si>
+    <t>Tables are not used for layout purposes</t>
+  </si>
+  <si>
+    <t>Ensure that tables don't contain split cells, merged cells, nested tables, or completely blank rows or columns.</t>
+  </si>
+  <si>
+    <t>If a table is too complex, you will need to provide an additional description: Right-click Format Shape &gt; Alt Text.</t>
+  </si>
+  <si>
+    <t>Audio or video file</t>
+  </si>
+  <si>
+    <t>Final Checks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run Accessibility Checker to make sure your content is accessible.
+In File tab &gt; Check for Issues (copy the result in the corresponding tab)    </t>
+  </si>
+  <si>
+    <t>Convert to PDF</t>
+  </si>
+  <si>
+    <t>Save you presentation as PDF: File tab &gt; Save As and save as type PDF. Check the « Document structure tags for accessibility » option.</t>
+  </si>
+  <si>
+    <t>Note: To check PDF document accessibility: download PDF Accessibility Checker (PAC 3).</t>
+  </si>
+  <si>
+    <t>Note: If your presentation have more than 50 slides, it is better to advise your readers to change the following setting in Adobe: Edit &gt; Preferences &gt; Reading &gt; Screen Reader Options &gt; Page vs Document: "Read the entire document"</t>
+  </si>
+  <si>
+    <t>“Heading” styles and sub-headings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Headings and sub-headings must use the “Headings” styles (Heading 1, Heading 2, etc.) </t>
+  </si>
+  <si>
+    <t>The “Columns” option in the Layout group must be used (instead of tables) to layout the page as proper columns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table of contents </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provide a table of contents for long documents using tab References &gt; Table of Contents </t>
+  </si>
+  <si>
+    <t>Formatting / layout</t>
+  </si>
+  <si>
+    <t>Use predefined styles for formatting content: "normal" style must be assigned almost everywhere (default style), the "quote" style for quotes, etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do not use text boxes because their content is not interpreted by screen readers. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number pages of your document (Insert Tab &gt; “Page Number”) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use the page break option via the Insert Tab &gt; “Page Break” menu </t>
+  </si>
+  <si>
+    <t>in addition to alt text, be sure the video or audio as well as the player are accessible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specify when links are opened in a new window: Insert tab &gt; Hyperlink &gt; SreenTip </t>
+  </si>
+  <si>
+    <t>Use a simple table structure, and specify column header information</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,6 +279,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -332,7 +307,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -407,12 +382,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -481,6 +493,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -787,13 +814,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="92.42578125" customWidth="1"/>
+    <col min="1" max="1" width="97.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="34.42578125" customWidth="1"/>
     <col min="4" max="4" width="46.28515625" customWidth="1"/>
@@ -803,42 +832,42 @@
   <sheetData>
     <row r="1" spans="1:3" s="18" customFormat="1" ht="38.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" s="1" customFormat="1" ht="32.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
+    <row r="5" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="27"/>
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -849,369 +878,314 @@
     </row>
     <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
     </row>
-    <row r="8" spans="1:3" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
     </row>
     <row r="11" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-    </row>
-    <row r="14" spans="1:3" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+    </row>
+    <row r="13" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" spans="1:3" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>44</v>
+      <c r="A17" s="28" t="s">
+        <v>25</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>46</v>
+    <row r="18" spans="1:4" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>43</v>
+    <row r="19" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>49</v>
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>48</v>
+    <row r="22" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="23"/>
+      <c r="C25" s="24"/>
+    </row>
+    <row r="26" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-    </row>
-    <row r="28" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="D28" s="16" t="s">
-        <v>15</v>
-      </c>
+      <c r="C26" s="29"/>
+      <c r="D26" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="23"/>
+      <c r="C28" s="24"/>
     </row>
     <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>10</v>
+      <c r="A29" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>17</v>
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="23"/>
+      <c r="C30" s="24"/>
+    </row>
+    <row r="31" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-    </row>
-    <row r="33" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>52</v>
+    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
     </row>
-    <row r="34" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-    </row>
-    <row r="35" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="23"/>
+      <c r="C34" s="24"/>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
+    <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="23"/>
+      <c r="C38" s="24"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
     </row>
-    <row r="40" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
     </row>
     <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
+    <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="23"/>
+      <c r="C43" s="24"/>
     </row>
     <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
     </row>
-    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
+    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="23"/>
+      <c r="C45" s="24"/>
     </row>
     <row r="46" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B47" s="23"/>
       <c r="C47" s="24"/>
     </row>
-    <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>24</v>
+    <row r="48" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
     </row>
-    <row r="49" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>25</v>
+    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
     </row>
-    <row r="50" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>26</v>
+    <row r="50" spans="1:3" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
-    </row>
-    <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-    </row>
-    <row r="52" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-    </row>
-    <row r="54" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
-    </row>
-    <row r="56" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-    </row>
-    <row r="57" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-    </row>
-    <row r="58" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
     </row>
   </sheetData>
   <sortState ref="A2:F27">
@@ -1220,21 +1194,21 @@
   <mergeCells count="14">
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A28:C28"/>
     <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A34:C34"/>
     <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A43:C43"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A10:C10"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D28" r:id="rId1"/>
+    <hyperlink ref="D26" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -1253,12 +1227,12 @@
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1276,7 +1250,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1284,13 +1258,13 @@
     </row>
     <row r="3" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="9" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1298,12 +1272,12 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1311,27 +1285,27 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
